--- a/biology/Botanique/Gentiane_croisette/Gentiane_croisette.xlsx
+++ b/biology/Botanique/Gentiane_croisette/Gentiane_croisette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana cruciata
 La Gentiane croisette (Gentiana cruciata) est une espèce de plantes herbacées vivaces de la famille des Gentianacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez basse (10 à 50 cm), formant des touffes, aux tiges érigées, aux grandes feuilles lancéolées, aux fleurs bleues en trompette à 4 pétales, groupées à l'aisselle des feuilles supérieures.
 			Touffe de Gentianes croisettes.
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : cyme capituliforme
@@ -587,9 +603,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est protégée dans plusieurs régions de France (Article 1)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est protégée dans plusieurs régions de France (Article 1).
 </t>
         </is>
       </c>
